--- a/Code/Results/Cases/Case_0_173/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_173/res_bus/vm_pu.xlsx
@@ -418,43 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.172898460946372</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.179190980263645</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.164525215978536</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.175994904095898</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.036733453855621</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.1773599188047</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.181629437015791</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.166995871270124</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.178440304681063</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.179031904934473</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.909856319255681</v>
+        <v>1.17803832402733</v>
       </c>
       <c r="D3">
-        <v>0.9232601651129964</v>
+        <v>1.184225271503157</v>
       </c>
       <c r="E3">
-        <v>0.9291255138620689</v>
+        <v>1.169149948550072</v>
       </c>
       <c r="F3">
-        <v>0.9261206557085259</v>
+        <v>1.180869966940986</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031053498880401</v>
+        <v>1.037192878988106</v>
       </c>
       <c r="J3">
-        <v>0.9331472993913702</v>
+        <v>1.182176470244498</v>
       </c>
       <c r="K3">
-        <v>0.9349791985565371</v>
+        <v>1.186490328027073</v>
       </c>
       <c r="L3">
-        <v>0.9407534506678116</v>
+        <v>1.171445526861641</v>
       </c>
       <c r="M3">
-        <v>0.9377950777509807</v>
+        <v>1.183141744957338</v>
       </c>
       <c r="N3">
-        <v>0.9344724755899971</v>
+        <v>1.183855296429781</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9524425344644234</v>
+        <v>1.181314603963118</v>
       </c>
       <c r="D4">
-        <v>0.9648979869898754</v>
+        <v>1.187432952592099</v>
       </c>
       <c r="E4">
-        <v>0.9673667615940111</v>
+        <v>1.172096510424995</v>
       </c>
       <c r="F4">
-        <v>0.9671542931718476</v>
+        <v>1.183973254604411</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037159856106777</v>
+        <v>1.037478022231475</v>
       </c>
       <c r="J4">
-        <v>0.9731462900705309</v>
+        <v>1.185244342682245</v>
       </c>
       <c r="K4">
-        <v>0.9754393749847954</v>
+        <v>1.189585965413035</v>
       </c>
       <c r="L4">
-        <v>0.9778756787432736</v>
+        <v>1.174278900821462</v>
       </c>
       <c r="M4">
-        <v>0.9776659966658092</v>
+        <v>1.186132824099284</v>
       </c>
       <c r="N4">
-        <v>0.9745282694238706</v>
+        <v>1.18692752559828</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9672815328173496</v>
+        <v>1.182680516165131</v>
       </c>
       <c r="D5">
-        <v>0.9794131273920172</v>
+        <v>1.188769951209466</v>
       </c>
       <c r="E5">
-        <v>0.9807025482966611</v>
+        <v>1.173324632447065</v>
       </c>
       <c r="F5">
-        <v>0.9814541081083236</v>
+        <v>1.185266035466533</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039302594600755</v>
+        <v>1.037595040876778</v>
       </c>
       <c r="J5">
-        <v>0.9870815225683136</v>
+        <v>1.186522811396982</v>
       </c>
       <c r="K5">
-        <v>0.989535516437331</v>
+        <v>1.190875889781271</v>
       </c>
       <c r="L5">
-        <v>0.99080898775463</v>
+        <v>1.175459454050475</v>
       </c>
       <c r="M5">
-        <v>0.9915512751509074</v>
+        <v>1.187378456484886</v>
       </c>
       <c r="N5">
-        <v>0.9884832915501939</v>
+        <v>1.188207809885234</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9696458744841574</v>
+        <v>1.182909200304763</v>
       </c>
       <c r="D6">
-        <v>0.9817260867098772</v>
+        <v>1.188993776084781</v>
       </c>
       <c r="E6">
-        <v>0.9828277785762408</v>
+        <v>1.173530228158815</v>
       </c>
       <c r="F6">
-        <v>0.9837324088021726</v>
+        <v>1.185482416454744</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039644358349971</v>
+        <v>1.03761452276508</v>
       </c>
       <c r="J6">
-        <v>0.9893016276706125</v>
+        <v>1.186736822860723</v>
       </c>
       <c r="K6">
-        <v>0.991781245281527</v>
+        <v>1.191091812127773</v>
       </c>
       <c r="L6">
-        <v>0.9928694449253118</v>
+        <v>1.175657063423414</v>
       </c>
       <c r="M6">
-        <v>0.9937630243950967</v>
+        <v>1.187586922193787</v>
       </c>
       <c r="N6">
-        <v>0.9907065494563874</v>
+        <v>1.188422125269801</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9526501825236874</v>
+        <v>1.181332899731013</v>
       </c>
       <c r="D7">
-        <v>0.9651010847963637</v>
+        <v>1.187450862316241</v>
       </c>
       <c r="E7">
-        <v>0.9675533423455905</v>
+        <v>1.172112961850427</v>
       </c>
       <c r="F7">
-        <v>0.9673544013874982</v>
+        <v>1.183990574794536</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037189805765712</v>
+        <v>1.037479596996601</v>
       </c>
       <c r="J7">
-        <v>0.9733413062954219</v>
+        <v>1.185261469379502</v>
       </c>
       <c r="K7">
-        <v>0.9756366434246697</v>
+        <v>1.189603246026593</v>
       </c>
       <c r="L7">
-        <v>0.9780566746184094</v>
+        <v>1.174294716580449</v>
       </c>
       <c r="M7">
-        <v>0.977860340412092</v>
+        <v>1.186149514206297</v>
       </c>
       <c r="N7">
-        <v>0.9747235625941697</v>
+        <v>1.186944676617411</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.8416041122495745</v>
+        <v>1.174646026271074</v>
       </c>
       <c r="D8">
-        <v>0.8566265766754471</v>
+        <v>1.180902922818698</v>
       </c>
       <c r="E8">
-        <v>0.8679803674827747</v>
+        <v>1.166097919299112</v>
       </c>
       <c r="F8">
-        <v>0.8604594108808715</v>
+        <v>1.177653313839638</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.021525201609892</v>
+        <v>1.036891262261581</v>
       </c>
       <c r="J8">
-        <v>0.8690721458743951</v>
+        <v>1.178998042341821</v>
       </c>
       <c r="K8">
-        <v>0.8701764828037837</v>
+        <v>1.183282740021534</v>
       </c>
       <c r="L8">
-        <v>0.8813051605873069</v>
+        <v>1.168509381052595</v>
       </c>
       <c r="M8">
-        <v>0.8739324495047982</v>
+        <v>1.180040004120601</v>
       </c>
       <c r="N8">
-        <v>0.8703063280055051</v>
+        <v>1.180672354794912</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8416041122495745</v>
+        <v>1.162463133237349</v>
       </c>
       <c r="D9">
-        <v>0.8566265766754471</v>
+        <v>1.168962930677166</v>
       </c>
       <c r="E9">
-        <v>0.8679803674827747</v>
+        <v>1.155128382232715</v>
       </c>
       <c r="F9">
-        <v>0.8604594108808715</v>
+        <v>1.166074345691024</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021525201609892</v>
+        <v>1.035759222261601</v>
       </c>
       <c r="J9">
-        <v>0.8690721458743951</v>
+        <v>1.167568345648049</v>
       </c>
       <c r="K9">
-        <v>0.8701764828037837</v>
+        <v>1.171745139686581</v>
       </c>
       <c r="L9">
-        <v>0.8813051605873069</v>
+        <v>1.157945756727379</v>
       </c>
       <c r="M9">
-        <v>0.8739324495047982</v>
+        <v>1.168863822809237</v>
       </c>
       <c r="N9">
-        <v>0.8703063280055051</v>
+        <v>1.16922642662083</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8416041122495745</v>
+        <v>1.154042498111525</v>
       </c>
       <c r="D10">
-        <v>0.8566265766754471</v>
+        <v>1.16070334499222</v>
       </c>
       <c r="E10">
-        <v>0.8679803674827747</v>
+        <v>1.147539277217807</v>
       </c>
       <c r="F10">
-        <v>0.8604594108808715</v>
+        <v>1.158048874015242</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021525201609892</v>
+        <v>1.034936893787768</v>
       </c>
       <c r="J10">
-        <v>0.8690721458743951</v>
+        <v>1.159655931831867</v>
       </c>
       <c r="K10">
-        <v>0.8701764828037837</v>
+        <v>1.163755518420129</v>
       </c>
       <c r="L10">
-        <v>0.8813051605873069</v>
+        <v>1.150628590143588</v>
       </c>
       <c r="M10">
-        <v>0.8739324495047982</v>
+        <v>1.161108462723247</v>
       </c>
       <c r="N10">
-        <v>0.8703063280055051</v>
+        <v>1.161302776269463</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8416041122495745</v>
+        <v>1.150318236932015</v>
       </c>
       <c r="D11">
-        <v>0.8566265766754471</v>
+        <v>1.157048706012831</v>
       </c>
       <c r="E11">
-        <v>0.8679803674827747</v>
+        <v>1.144181113414466</v>
       </c>
       <c r="F11">
-        <v>0.8604594108808715</v>
+        <v>1.154494119900936</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021525201609892</v>
+        <v>1.034563913181882</v>
       </c>
       <c r="J11">
-        <v>0.8690721458743951</v>
+        <v>1.156153506130681</v>
       </c>
       <c r="K11">
-        <v>0.8701764828037837</v>
+        <v>1.160218326338071</v>
       </c>
       <c r="L11">
-        <v>0.8813051605873069</v>
+        <v>1.147388628095247</v>
       </c>
       <c r="M11">
-        <v>0.8739324495047982</v>
+        <v>1.157671190239914</v>
       </c>
       <c r="N11">
-        <v>0.8703063280055051</v>
+        <v>1.157795376722048</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8416041122495745</v>
+        <v>1.148922494883345</v>
       </c>
       <c r="D12">
-        <v>0.8566265766754471</v>
+        <v>1.155678816386903</v>
       </c>
       <c r="E12">
-        <v>0.8679803674827747</v>
+        <v>1.142922324671092</v>
       </c>
       <c r="F12">
-        <v>0.8604594108808715</v>
+        <v>1.153161114461964</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021525201609892</v>
+        <v>1.03442275217299</v>
       </c>
       <c r="J12">
-        <v>0.8690721458743951</v>
+        <v>1.154840459528738</v>
       </c>
       <c r="K12">
-        <v>0.8701764828037837</v>
+        <v>1.158892157622039</v>
       </c>
       <c r="L12">
-        <v>0.8813051605873069</v>
+        <v>1.146173824592848</v>
       </c>
       <c r="M12">
-        <v>0.8739324495047982</v>
+        <v>1.156381914121668</v>
       </c>
       <c r="N12">
-        <v>0.8703063280055051</v>
+        <v>1.156480465443321</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8416041122495745</v>
+        <v>1.149222457769985</v>
       </c>
       <c r="D13">
-        <v>0.8566265766754471</v>
+        <v>1.15597323407491</v>
       </c>
       <c r="E13">
-        <v>0.8679803674827747</v>
+        <v>1.14319286576071</v>
       </c>
       <c r="F13">
-        <v>0.8604594108808715</v>
+        <v>1.153447630108703</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021525201609892</v>
+        <v>1.034453151555342</v>
       </c>
       <c r="J13">
-        <v>0.8690721458743951</v>
+        <v>1.155122670076862</v>
       </c>
       <c r="K13">
-        <v>0.8701764828037837</v>
+        <v>1.159177192465995</v>
       </c>
       <c r="L13">
-        <v>0.8813051605873069</v>
+        <v>1.14643492688275</v>
       </c>
       <c r="M13">
-        <v>0.8739324495047982</v>
+        <v>1.156659045325715</v>
       </c>
       <c r="N13">
-        <v>0.8703063280055051</v>
+        <v>1.156763076762794</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8416041122495745</v>
+        <v>1.150203121065715</v>
       </c>
       <c r="D14">
-        <v>0.8566265766754471</v>
+        <v>1.156935727234604</v>
       </c>
       <c r="E14">
-        <v>0.8679803674827747</v>
+        <v>1.14407729802814</v>
       </c>
       <c r="F14">
-        <v>0.8604594108808715</v>
+        <v>1.154384194382054</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021525201609892</v>
+        <v>1.034552298681632</v>
       </c>
       <c r="J14">
-        <v>0.8690721458743951</v>
+        <v>1.156045219682435</v>
       </c>
       <c r="K14">
-        <v>0.8701764828037837</v>
+        <v>1.160108959508403</v>
       </c>
       <c r="L14">
-        <v>0.8813051605873069</v>
+        <v>1.147288446841046</v>
       </c>
       <c r="M14">
-        <v>0.8739324495047982</v>
+        <v>1.157564877457266</v>
       </c>
       <c r="N14">
-        <v>0.8703063280055051</v>
+        <v>1.157686936494625</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8416041122495745</v>
+        <v>1.150805678530388</v>
       </c>
       <c r="D15">
-        <v>0.8566265766754471</v>
+        <v>1.157527088638154</v>
       </c>
       <c r="E15">
-        <v>0.8679803674827747</v>
+        <v>1.144620694601321</v>
       </c>
       <c r="F15">
-        <v>0.8604594108808715</v>
+        <v>1.154959551507918</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021525201609892</v>
+        <v>1.034613036938153</v>
       </c>
       <c r="J15">
-        <v>0.8690721458743951</v>
+        <v>1.156612011507045</v>
       </c>
       <c r="K15">
-        <v>0.8701764828037837</v>
+        <v>1.160681402653132</v>
       </c>
       <c r="L15">
-        <v>0.8813051605873069</v>
+        <v>1.147812808276191</v>
       </c>
       <c r="M15">
-        <v>0.8739324495047982</v>
+        <v>1.158121312013103</v>
       </c>
       <c r="N15">
-        <v>0.8703063280055051</v>
+        <v>1.158254533228636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8416041122495745</v>
+        <v>1.15428796512109</v>
       </c>
       <c r="D16">
-        <v>0.8566265766754471</v>
+        <v>1.160944189746538</v>
       </c>
       <c r="E16">
-        <v>0.8679803674827747</v>
+        <v>1.147760579919141</v>
       </c>
       <c r="F16">
-        <v>0.8604594108808715</v>
+        <v>1.158283058900293</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021525201609892</v>
+        <v>1.034961284422651</v>
       </c>
       <c r="J16">
-        <v>0.8690721458743951</v>
+        <v>1.15988671617739</v>
       </c>
       <c r="K16">
-        <v>0.8701764828037837</v>
+        <v>1.163988581317732</v>
       </c>
       <c r="L16">
-        <v>0.8813051605873069</v>
+        <v>1.150842058698251</v>
       </c>
       <c r="M16">
-        <v>0.8739324495047982</v>
+        <v>1.161334862824321</v>
       </c>
       <c r="N16">
-        <v>0.8703063280055051</v>
+        <v>1.161533888355228</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8416041122495745</v>
+        <v>1.156450959343791</v>
       </c>
       <c r="D17">
-        <v>0.8566265766754471</v>
+        <v>1.163066270466847</v>
       </c>
       <c r="E17">
-        <v>0.8679803674827747</v>
+        <v>1.149710453699905</v>
       </c>
       <c r="F17">
-        <v>0.8604594108808715</v>
+        <v>1.160346036564162</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021525201609892</v>
+        <v>1.035175150061517</v>
       </c>
       <c r="J17">
-        <v>0.8690721458743951</v>
+        <v>1.161919994576496</v>
       </c>
       <c r="K17">
-        <v>0.8701764828037837</v>
+        <v>1.16604186705219</v>
       </c>
       <c r="L17">
-        <v>0.8813051605873069</v>
+        <v>1.152722663127862</v>
       </c>
       <c r="M17">
-        <v>0.8739324495047982</v>
+        <v>1.163329016234961</v>
       </c>
       <c r="N17">
-        <v>0.8703063280055051</v>
+        <v>1.163570054242881</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8416041122495745</v>
+        <v>1.157705111083362</v>
       </c>
       <c r="D18">
-        <v>0.8566265766754471</v>
+        <v>1.1642965465138</v>
       </c>
       <c r="E18">
-        <v>0.8679803674827747</v>
+        <v>1.150840874274837</v>
       </c>
       <c r="F18">
-        <v>0.8604594108808715</v>
+        <v>1.161541694801962</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021525201609892</v>
+        <v>1.035298268632654</v>
       </c>
       <c r="J18">
-        <v>0.8690721458743951</v>
+        <v>1.163098654179333</v>
       </c>
       <c r="K18">
-        <v>0.8701764828037837</v>
+        <v>1.167232068333837</v>
       </c>
       <c r="L18">
-        <v>0.8813051605873069</v>
+        <v>1.153812722683647</v>
       </c>
       <c r="M18">
-        <v>0.8739324495047982</v>
+        <v>1.164484579848642</v>
       </c>
       <c r="N18">
-        <v>0.8703063280055051</v>
+        <v>1.164750387677548</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8416041122495745</v>
+        <v>1.158131493880987</v>
       </c>
       <c r="D19">
-        <v>0.8566265766754471</v>
+        <v>1.164714786105393</v>
       </c>
       <c r="E19">
-        <v>0.8679803674827747</v>
+        <v>1.151225164254658</v>
       </c>
       <c r="F19">
-        <v>0.8604594108808715</v>
+        <v>1.161948106011007</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021525201609892</v>
+        <v>1.035339975468836</v>
       </c>
       <c r="J19">
-        <v>0.8690721458743951</v>
+        <v>1.163499323889588</v>
       </c>
       <c r="K19">
-        <v>0.8701764828037837</v>
+        <v>1.167636651929979</v>
       </c>
       <c r="L19">
-        <v>0.8813051605873069</v>
+        <v>1.154183257471127</v>
       </c>
       <c r="M19">
-        <v>0.8739324495047982</v>
+        <v>1.164877327821977</v>
       </c>
       <c r="N19">
-        <v>0.8703063280055051</v>
+        <v>1.165151626384749</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8416041122495745</v>
+        <v>1.156219669477513</v>
       </c>
       <c r="D20">
-        <v>0.8566265766754471</v>
+        <v>1.162839371364758</v>
       </c>
       <c r="E20">
-        <v>0.8679803674827747</v>
+        <v>1.14950196938602</v>
       </c>
       <c r="F20">
-        <v>0.8604594108808715</v>
+        <v>1.160125493511911</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021525201609892</v>
+        <v>1.035152373006177</v>
       </c>
       <c r="J20">
-        <v>0.8690721458743951</v>
+        <v>1.161702604311301</v>
       </c>
       <c r="K20">
-        <v>0.8701764828037837</v>
+        <v>1.16582234351034</v>
       </c>
       <c r="L20">
-        <v>0.8813051605873069</v>
+        <v>1.152521606265762</v>
       </c>
       <c r="M20">
-        <v>0.8739324495047982</v>
+        <v>1.163115852172341</v>
       </c>
       <c r="N20">
-        <v>0.8703063280055051</v>
+        <v>1.163352355258574</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8416041122495745</v>
+        <v>1.149914687554645</v>
       </c>
       <c r="D21">
-        <v>0.8566265766754471</v>
+        <v>1.156652644534481</v>
       </c>
       <c r="E21">
-        <v>0.8679803674827747</v>
+        <v>1.143817174912362</v>
       </c>
       <c r="F21">
-        <v>0.8604594108808715</v>
+        <v>1.154108753046734</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021525201609892</v>
+        <v>1.034523175296729</v>
       </c>
       <c r="J21">
-        <v>0.8690721458743951</v>
+        <v>1.15577389079014</v>
       </c>
       <c r="K21">
-        <v>0.8701764828037837</v>
+        <v>1.159834922126629</v>
       </c>
       <c r="L21">
-        <v>0.8813051605873069</v>
+        <v>1.147037424324511</v>
       </c>
       <c r="M21">
-        <v>0.8739324495047982</v>
+        <v>1.157298483339473</v>
       </c>
       <c r="N21">
-        <v>0.8703063280055051</v>
+        <v>1.15741522228418</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8416041122495745</v>
+        <v>1.145878479476662</v>
       </c>
       <c r="D22">
-        <v>0.8566265766754471</v>
+        <v>1.152690744411885</v>
       </c>
       <c r="E22">
-        <v>0.8679803674827747</v>
+        <v>1.140176539558095</v>
       </c>
       <c r="F22">
-        <v>0.8604594108808715</v>
+        <v>1.150252474914388</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021525201609892</v>
+        <v>1.034112375375829</v>
       </c>
       <c r="J22">
-        <v>0.8690721458743951</v>
+        <v>1.151975985444667</v>
       </c>
       <c r="K22">
-        <v>0.8701764828037837</v>
+        <v>1.15599889524057</v>
       </c>
       <c r="L22">
-        <v>0.8813051605873069</v>
+        <v>1.14352339054932</v>
       </c>
       <c r="M22">
-        <v>0.8739324495047982</v>
+        <v>1.15356809399958</v>
       </c>
       <c r="N22">
-        <v>0.8703063280055051</v>
+        <v>1.153611923477491</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8416041122495745</v>
+        <v>1.148025206350399</v>
       </c>
       <c r="D23">
-        <v>0.8566265766754471</v>
+        <v>1.154798080350242</v>
       </c>
       <c r="E23">
-        <v>0.8679803674827747</v>
+        <v>1.142113010152756</v>
       </c>
       <c r="F23">
-        <v>0.8604594108808715</v>
+        <v>1.152303935519696</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021525201609892</v>
+        <v>1.034331616731898</v>
       </c>
       <c r="J23">
-        <v>0.8690721458743951</v>
+        <v>1.153996209377484</v>
       </c>
       <c r="K23">
-        <v>0.8701764828037837</v>
+        <v>1.158039445506821</v>
       </c>
       <c r="L23">
-        <v>0.8813051605873069</v>
+        <v>1.14539269859393</v>
       </c>
       <c r="M23">
-        <v>0.8739324495047982</v>
+        <v>1.155552763204379</v>
       </c>
       <c r="N23">
-        <v>0.8703063280055051</v>
+        <v>1.155635016360015</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8416041122495745</v>
+        <v>1.156324202499726</v>
       </c>
       <c r="D24">
-        <v>0.8566265766754471</v>
+        <v>1.162941920425893</v>
       </c>
       <c r="E24">
-        <v>0.8679803674827747</v>
+        <v>1.149596195777754</v>
       </c>
       <c r="F24">
-        <v>0.8604594108808715</v>
+        <v>1.160225170993084</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021525201609892</v>
+        <v>1.035162669994981</v>
       </c>
       <c r="J24">
-        <v>0.8690721458743951</v>
+        <v>1.161800856182186</v>
       </c>
       <c r="K24">
-        <v>0.8701764828037837</v>
+        <v>1.16592155971292</v>
       </c>
       <c r="L24">
-        <v>0.8813051605873069</v>
+        <v>1.152612476380862</v>
       </c>
       <c r="M24">
-        <v>0.8739324495047982</v>
+        <v>1.163212195253968</v>
       </c>
       <c r="N24">
-        <v>0.8703063280055051</v>
+        <v>1.163450746658386</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8416041122495745</v>
+        <v>1.165663049625547</v>
       </c>
       <c r="D25">
-        <v>0.8566265766754471</v>
+        <v>1.172100238193052</v>
       </c>
       <c r="E25">
-        <v>0.8679803674827747</v>
+        <v>1.158010843525314</v>
       </c>
       <c r="F25">
-        <v>0.8604594108808715</v>
+        <v>1.169119500237839</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021525201609892</v>
+        <v>1.03606352835127</v>
       </c>
       <c r="J25">
-        <v>0.8690721458743951</v>
+        <v>1.170572573868437</v>
       </c>
       <c r="K25">
-        <v>0.8701764828037837</v>
+        <v>1.174778165847196</v>
       </c>
       <c r="L25">
-        <v>0.8813051605873069</v>
+        <v>1.160723088580781</v>
       </c>
       <c r="M25">
-        <v>0.8739324495047982</v>
+        <v>1.171804613901682</v>
       </c>
       <c r="N25">
-        <v>0.8703063280055051</v>
+        <v>1.172234921189882</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_173/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_173/res_bus/vm_pu.xlsx
@@ -418,40 +418,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.172898460946372</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.179190980263645</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.164525215978536</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.175994904095898</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.036733453855621</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.1773599188047</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.181629437015791</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.166995871270124</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.178440304681063</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.179031904934473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.17803832402733</v>
+        <v>0.909856319255683</v>
       </c>
       <c r="D3">
-        <v>1.184225271503157</v>
+        <v>0.9232601651129982</v>
       </c>
       <c r="E3">
-        <v>1.169149948550072</v>
+        <v>0.9291255138620708</v>
       </c>
       <c r="F3">
-        <v>1.180869966940986</v>
+        <v>0.9261206557085276</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037192878988106</v>
+        <v>1.031053498880402</v>
       </c>
       <c r="J3">
-        <v>1.182176470244498</v>
+        <v>0.9331472993913723</v>
       </c>
       <c r="K3">
-        <v>1.186490328027073</v>
+        <v>0.934979198556539</v>
       </c>
       <c r="L3">
-        <v>1.171445526861641</v>
+        <v>0.9407534506678134</v>
       </c>
       <c r="M3">
-        <v>1.183141744957338</v>
+        <v>0.9377950777509825</v>
       </c>
       <c r="N3">
-        <v>1.183855296429781</v>
+        <v>0.9344724755899994</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.181314603963118</v>
+        <v>0.9524425344644242</v>
       </c>
       <c r="D4">
-        <v>1.187432952592099</v>
+        <v>0.9648979869898759</v>
       </c>
       <c r="E4">
-        <v>1.172096510424995</v>
+        <v>0.967366761594012</v>
       </c>
       <c r="F4">
-        <v>1.183973254604411</v>
+        <v>0.9671542931718484</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037478022231475</v>
+        <v>1.037159856106777</v>
       </c>
       <c r="J4">
-        <v>1.185244342682245</v>
+        <v>0.9731462900705317</v>
       </c>
       <c r="K4">
-        <v>1.189585965413035</v>
+        <v>0.9754393749847964</v>
       </c>
       <c r="L4">
-        <v>1.174278900821462</v>
+        <v>0.9778756787432743</v>
       </c>
       <c r="M4">
-        <v>1.186132824099284</v>
+        <v>0.9776659966658099</v>
       </c>
       <c r="N4">
-        <v>1.18692752559828</v>
+        <v>0.9745282694238715</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.182680516165131</v>
+        <v>0.9672815328173457</v>
       </c>
       <c r="D5">
-        <v>1.188769951209466</v>
+        <v>0.9794131273920132</v>
       </c>
       <c r="E5">
-        <v>1.173324632447065</v>
+        <v>0.9807025482966575</v>
       </c>
       <c r="F5">
-        <v>1.185266035466533</v>
+        <v>0.9814541081083197</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037595040876778</v>
+        <v>1.039302594600755</v>
       </c>
       <c r="J5">
-        <v>1.186522811396982</v>
+        <v>0.9870815225683096</v>
       </c>
       <c r="K5">
-        <v>1.190875889781271</v>
+        <v>0.989535516437327</v>
       </c>
       <c r="L5">
-        <v>1.175459454050475</v>
+        <v>0.990808987754626</v>
       </c>
       <c r="M5">
-        <v>1.187378456484886</v>
+        <v>0.9915512751509035</v>
       </c>
       <c r="N5">
-        <v>1.188207809885234</v>
+        <v>0.9884832915501897</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.182909200304763</v>
+        <v>0.9696458744841617</v>
       </c>
       <c r="D6">
-        <v>1.188993776084781</v>
+        <v>0.9817260867098813</v>
       </c>
       <c r="E6">
-        <v>1.173530228158815</v>
+        <v>0.9828277785762445</v>
       </c>
       <c r="F6">
-        <v>1.185482416454744</v>
+        <v>0.9837324088021766</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03761452276508</v>
+        <v>1.039644358349971</v>
       </c>
       <c r="J6">
-        <v>1.186736822860723</v>
+        <v>0.9893016276706166</v>
       </c>
       <c r="K6">
-        <v>1.191091812127773</v>
+        <v>0.9917812452815311</v>
       </c>
       <c r="L6">
-        <v>1.175657063423414</v>
+        <v>0.9928694449253154</v>
       </c>
       <c r="M6">
-        <v>1.187586922193787</v>
+        <v>0.9937630243951004</v>
       </c>
       <c r="N6">
-        <v>1.188422125269801</v>
+        <v>0.9907065494563919</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.181332899731013</v>
+        <v>0.9526501825236856</v>
       </c>
       <c r="D7">
-        <v>1.187450862316241</v>
+        <v>0.9651010847963626</v>
       </c>
       <c r="E7">
-        <v>1.172112961850427</v>
+        <v>0.9675533423455892</v>
       </c>
       <c r="F7">
-        <v>1.183990574794536</v>
+        <v>0.9673544013874966</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037479596996601</v>
+        <v>1.037189805765711</v>
       </c>
       <c r="J7">
-        <v>1.185261469379502</v>
+        <v>0.9733413062954204</v>
       </c>
       <c r="K7">
-        <v>1.189603246026593</v>
+        <v>0.9756366434246684</v>
       </c>
       <c r="L7">
-        <v>1.174294716580449</v>
+        <v>0.978056674618408</v>
       </c>
       <c r="M7">
-        <v>1.186149514206297</v>
+        <v>0.9778603404120906</v>
       </c>
       <c r="N7">
-        <v>1.186944676617411</v>
+        <v>0.9747235625941679</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.174646026271074</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D8">
-        <v>1.180902922818698</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E8">
-        <v>1.166097919299112</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F8">
-        <v>1.177653313839638</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036891262261581</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J8">
-        <v>1.178998042341821</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K8">
-        <v>1.183282740021534</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L8">
-        <v>1.168509381052595</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M8">
-        <v>1.180040004120601</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N8">
-        <v>1.180672354794912</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.162463133237349</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D9">
-        <v>1.168962930677166</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E9">
-        <v>1.155128382232715</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F9">
-        <v>1.166074345691024</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035759222261601</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J9">
-        <v>1.167568345648049</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K9">
-        <v>1.171745139686581</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L9">
-        <v>1.157945756727379</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M9">
-        <v>1.168863822809237</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N9">
-        <v>1.16922642662083</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.154042498111525</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D10">
-        <v>1.16070334499222</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E10">
-        <v>1.147539277217807</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F10">
-        <v>1.158048874015242</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034936893787768</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J10">
-        <v>1.159655931831867</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K10">
-        <v>1.163755518420129</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L10">
-        <v>1.150628590143588</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M10">
-        <v>1.161108462723247</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N10">
-        <v>1.161302776269463</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.150318236932015</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D11">
-        <v>1.157048706012831</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E11">
-        <v>1.144181113414466</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F11">
-        <v>1.154494119900936</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034563913181882</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J11">
-        <v>1.156153506130681</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K11">
-        <v>1.160218326338071</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L11">
-        <v>1.147388628095247</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M11">
-        <v>1.157671190239914</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N11">
-        <v>1.157795376722048</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.148922494883345</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D12">
-        <v>1.155678816386903</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E12">
-        <v>1.142922324671092</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F12">
-        <v>1.153161114461964</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03442275217299</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J12">
-        <v>1.154840459528738</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K12">
-        <v>1.158892157622039</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L12">
-        <v>1.146173824592848</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M12">
-        <v>1.156381914121668</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N12">
-        <v>1.156480465443321</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.149222457769985</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D13">
-        <v>1.15597323407491</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E13">
-        <v>1.14319286576071</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F13">
-        <v>1.153447630108703</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034453151555342</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J13">
-        <v>1.155122670076862</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K13">
-        <v>1.159177192465995</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L13">
-        <v>1.14643492688275</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M13">
-        <v>1.156659045325715</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N13">
-        <v>1.156763076762794</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.150203121065715</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D14">
-        <v>1.156935727234604</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E14">
-        <v>1.14407729802814</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F14">
-        <v>1.154384194382054</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034552298681632</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J14">
-        <v>1.156045219682435</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K14">
-        <v>1.160108959508403</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L14">
-        <v>1.147288446841046</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M14">
-        <v>1.157564877457266</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N14">
-        <v>1.157686936494625</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.150805678530388</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D15">
-        <v>1.157527088638154</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E15">
-        <v>1.144620694601321</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F15">
-        <v>1.154959551507918</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034613036938153</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J15">
-        <v>1.156612011507045</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K15">
-        <v>1.160681402653132</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L15">
-        <v>1.147812808276191</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M15">
-        <v>1.158121312013103</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N15">
-        <v>1.158254533228636</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.15428796512109</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D16">
-        <v>1.160944189746538</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E16">
-        <v>1.147760579919141</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F16">
-        <v>1.158283058900293</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034961284422651</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J16">
-        <v>1.15988671617739</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K16">
-        <v>1.163988581317732</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L16">
-        <v>1.150842058698251</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M16">
-        <v>1.161334862824321</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N16">
-        <v>1.161533888355228</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.156450959343791</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D17">
-        <v>1.163066270466847</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E17">
-        <v>1.149710453699905</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F17">
-        <v>1.160346036564162</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035175150061517</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J17">
-        <v>1.161919994576496</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K17">
-        <v>1.16604186705219</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L17">
-        <v>1.152722663127862</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M17">
-        <v>1.163329016234961</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N17">
-        <v>1.163570054242881</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.157705111083362</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D18">
-        <v>1.1642965465138</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E18">
-        <v>1.150840874274837</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F18">
-        <v>1.161541694801962</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035298268632654</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J18">
-        <v>1.163098654179333</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K18">
-        <v>1.167232068333837</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L18">
-        <v>1.153812722683647</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M18">
-        <v>1.164484579848642</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N18">
-        <v>1.164750387677548</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.158131493880987</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D19">
-        <v>1.164714786105393</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E19">
-        <v>1.151225164254658</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F19">
-        <v>1.161948106011007</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035339975468836</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J19">
-        <v>1.163499323889588</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K19">
-        <v>1.167636651929979</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L19">
-        <v>1.154183257471127</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M19">
-        <v>1.164877327821977</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N19">
-        <v>1.165151626384749</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.156219669477513</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D20">
-        <v>1.162839371364758</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E20">
-        <v>1.14950196938602</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F20">
-        <v>1.160125493511911</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035152373006177</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J20">
-        <v>1.161702604311301</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K20">
-        <v>1.16582234351034</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L20">
-        <v>1.152521606265762</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M20">
-        <v>1.163115852172341</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N20">
-        <v>1.163352355258574</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.149914687554645</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D21">
-        <v>1.156652644534481</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E21">
-        <v>1.143817174912362</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F21">
-        <v>1.154108753046734</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034523175296729</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J21">
-        <v>1.15577389079014</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K21">
-        <v>1.159834922126629</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L21">
-        <v>1.147037424324511</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M21">
-        <v>1.157298483339473</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N21">
-        <v>1.15741522228418</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.145878479476662</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D22">
-        <v>1.152690744411885</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E22">
-        <v>1.140176539558095</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F22">
-        <v>1.150252474914388</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034112375375829</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J22">
-        <v>1.151975985444667</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K22">
-        <v>1.15599889524057</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L22">
-        <v>1.14352339054932</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M22">
-        <v>1.15356809399958</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N22">
-        <v>1.153611923477491</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.148025206350399</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D23">
-        <v>1.154798080350242</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E23">
-        <v>1.142113010152756</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F23">
-        <v>1.152303935519696</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034331616731898</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J23">
-        <v>1.153996209377484</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K23">
-        <v>1.158039445506821</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L23">
-        <v>1.14539269859393</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M23">
-        <v>1.155552763204379</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N23">
-        <v>1.155635016360015</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.156324202499726</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D24">
-        <v>1.162941920425893</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E24">
-        <v>1.149596195777754</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F24">
-        <v>1.160225170993084</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035162669994981</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J24">
-        <v>1.161800856182186</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K24">
-        <v>1.16592155971292</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L24">
-        <v>1.152612476380862</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M24">
-        <v>1.163212195253968</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N24">
-        <v>1.163450746658386</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.165663049625547</v>
+        <v>0.8416041122495562</v>
       </c>
       <c r="D25">
-        <v>1.172100238193052</v>
+        <v>0.8566265766754293</v>
       </c>
       <c r="E25">
-        <v>1.158010843525314</v>
+        <v>0.8679803674827588</v>
       </c>
       <c r="F25">
-        <v>1.169119500237839</v>
+        <v>0.8604594108808541</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03606352835127</v>
+        <v>1.02152520160989</v>
       </c>
       <c r="J25">
-        <v>1.170572573868437</v>
+        <v>0.8690721458743779</v>
       </c>
       <c r="K25">
-        <v>1.174778165847196</v>
+        <v>0.8701764828037664</v>
       </c>
       <c r="L25">
-        <v>1.160723088580781</v>
+        <v>0.8813051605872908</v>
       </c>
       <c r="M25">
-        <v>1.171804613901682</v>
+        <v>0.873932449504781</v>
       </c>
       <c r="N25">
-        <v>1.172234921189882</v>
+        <v>0.8703063280054879</v>
       </c>
     </row>
   </sheetData>
